--- a/biology/Zoologie/Grzimek's_Animal_Life_Encyclopedia/Grzimek's_Animal_Life_Encyclopedia.xlsx
+++ b/biology/Zoologie/Grzimek's_Animal_Life_Encyclopedia/Grzimek's_Animal_Life_Encyclopedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grzimek%27s_Animal_Life_Encyclopedia</t>
+          <t>Grzimek's_Animal_Life_Encyclopedia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Grzimek's Animal Life Encyclopedia est une encyclopédie du monde animal publiée originellement en allemand entre 1967 et 1972 sous la direction de Bernhard Grzimek et sous le titre Grzimeks Tierleben (Grzimek's Animal Life). Elle a été publiée ensuite en anglais, puis en français entre 1971 et 1975 sous le titre Le Monde animal en 13 volumes, sous-titrée Encyclopédie de la vie des bêtes, et sous la direction de Maurice Fontaine de l'Académie des Sciences. Aux 13 tomes est venu s'ajouter en 1978 un Index permettant de situer chaque espèce dans l'encyclopédie. Cet index ainsi que six volumes ont été édités sous la seule direction de Bernhard Grzimek.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grzimek%27s_Animal_Life_Encyclopedia</t>
+          <t>Grzimek's_Animal_Life_Encyclopedia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Édition française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bernhard Grzimek &amp; Maurice Fontaine. Le Monde animal en 13 volumes, Éditions Stauffacher S.A., Zurich, 1971-1975.
 Bernhard Grzimek &amp; Maurice Fontaine, Le Monde animal en 13 volumes, tome I : Animaux inférieurs, 1973. Introduction à l'étude du règne animal, Protozoaires, Mésozoaires, Spongiaires, Cœlentérés, Animaux Vermiformes, Annélides, Arachnides, Crustacés, Myriapodes.
